--- a/va_facility_data_2025-02-20/Huntington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Huntington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Huntington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Huntington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R7c3002a727a847dbb8ae748caa1fe3c6"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R025521c96cc54209a4804719f5bda5d2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="Ra636ebc80a6b4b99b692adf4ad7a572e"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R943802cbc87a4f4582ae30d5a89a74b5"/>
   </x:sheets>
 </x:workbook>
 </file>
